--- a/build/assets/templates/allowance_template.xlsx
+++ b/build/assets/templates/allowance_template.xlsx
@@ -355,7 +355,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
